--- a/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
+++ b/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209C865-1900-4FE5-B7BA-6C516CE4B05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B1DE2-91D7-4FCA-B5A0-30B64E229968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>NOMBRE DE QUIEN DILIGENCIA</t>
   </si>
@@ -114,15 +114,9 @@
     <t>Emisión de gases por efecto de vehiculos</t>
   </si>
   <si>
-    <t>Cuantos kilometros hay desde el centroide el municipio hasta el sitio de disposición final</t>
-  </si>
-  <si>
     <t>¿Cual es el tipo de vehiculo usado para la recolección de residuos sólidos ordinarios?</t>
   </si>
   <si>
-    <t>¿Cual es el tipo de combustible usado para el vehiculo que realilza la recolección de residuos sólidos ordinarios?</t>
-  </si>
-  <si>
     <t>¿Cual es el rendimiento de combustible por Km de los vehiculos?</t>
   </si>
   <si>
@@ -151,6 +145,42 @@
   </si>
   <si>
     <t>NOMBRE EMPRESA DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>SANTA MARIA</t>
+  </si>
+  <si>
+    <t>ACUATODOS SANTA MARIA</t>
+  </si>
+  <si>
+    <t>ASEO URBANO</t>
+  </si>
+  <si>
+    <t>NO EXISTE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>RELLENO</t>
+  </si>
+  <si>
+    <t>VOLQUETA</t>
+  </si>
+  <si>
+    <t>DIESEL</t>
+  </si>
+  <si>
+    <t>65GL/KM</t>
+  </si>
+  <si>
+    <t>Cuantos kilometros hay desde el centro del municipio hasta el sitio de disposición final</t>
+  </si>
+  <si>
+    <t>¿Cual es el tipo de combustible usado para el vehiculo que realiza la recolección de residuos sólidos ordinarios?</t>
   </si>
 </sst>
 </file>
@@ -231,9 +261,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +276,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +596,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,49 +609,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +666,19 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="7">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -655,15 +693,19 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="7">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -672,17 +714,21 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -691,17 +737,21 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -710,17 +760,21 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -729,11 +783,15 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -745,139 +803,171 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2021</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2021</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A6:G20" xr:uid="{B5249A87-0327-4F9E-A16E-111C6D9B79BC}"/>

--- a/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
+++ b/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Dropbox\PC\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B1DE2-91D7-4FCA-B5A0-30B64E229968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDADAB33-09BB-4F69-8B94-B13A023B1726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>NOMBRE DE QUIEN DILIGENCIA</t>
   </si>
@@ -138,43 +138,10 @@
     <t>¿El municipio cuenta con planta de tratamiento de agua residual?</t>
   </si>
   <si>
-    <t>N.A</t>
-  </si>
-  <si>
     <t>MUNICIPIO</t>
   </si>
   <si>
     <t>NOMBRE EMPRESA DE SERVICIOS</t>
-  </si>
-  <si>
-    <t>SANTA MARIA</t>
-  </si>
-  <si>
-    <t>ACUATODOS SANTA MARIA</t>
-  </si>
-  <si>
-    <t>ASEO URBANO</t>
-  </si>
-  <si>
-    <t>NO EXISTE</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>RELLENO</t>
-  </si>
-  <si>
-    <t>VOLQUETA</t>
-  </si>
-  <si>
-    <t>DIESEL</t>
-  </si>
-  <si>
-    <t>65GL/KM</t>
   </si>
   <si>
     <t>Cuantos kilometros hay desde el centro del municipio hasta el sitio de disposición final</t>
@@ -595,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286EF9D-642F-442E-8CD6-817A774F7101}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,19 +577,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -672,13 +635,9 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
-        <v>52</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>2021</v>
-      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -693,13 +652,9 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
-        <v>15</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>2021</v>
-      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -714,15 +669,9 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -737,15 +686,9 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -760,15 +703,9 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -783,15 +720,9 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -806,15 +737,9 @@
       <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -827,17 +752,11 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2021</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -850,15 +769,9 @@
       <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -869,17 +782,11 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2021</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -892,15 +799,9 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -913,15 +814,9 @@
       <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="7">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -936,15 +831,9 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -959,15 +848,9 @@
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2021</v>
-      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:G20" xr:uid="{B5249A87-0327-4F9E-A16E-111C6D9B79BC}"/>

--- a/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
+++ b/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B1DE2-91D7-4FCA-B5A0-30B64E229968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1953C-6C31-42A3-81B1-92DFC2C0568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ambiental" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>NOMBRE DE QUIEN DILIGENCIA</t>
   </si>
@@ -138,9 +138,6 @@
     <t>¿El municipio cuenta con planta de tratamiento de agua residual?</t>
   </si>
   <si>
-    <t>N.A</t>
-  </si>
-  <si>
     <t>MUNICIPIO</t>
   </si>
   <si>
@@ -181,13 +178,19 @@
   </si>
   <si>
     <t>¿Cual es el tipo de combustible usado para el vehiculo que realiza la recolección de residuos sólidos ordinarios?</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>ANDRES PEREZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -279,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,47 +606,51 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -659,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,12 +689,14 @@
       <c r="E7" s="7">
         <v>52</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -696,12 +712,14 @@
       <c r="E8" s="7">
         <v>15</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,16 +733,16 @@
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -738,16 +756,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,16 +779,16 @@
         <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -784,16 +802,16 @@
         <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -810,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -827,19 +845,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -851,16 +869,16 @@
         <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,19 +887,19 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,16 +911,16 @@
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -917,13 +935,13 @@
         <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -937,16 +955,16 @@
         <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -960,10 +978,10 @@
         <v>33</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7">
         <v>2021</v>
@@ -974,6 +992,7 @@
   <mergeCells count="1">
     <mergeCell ref="C14:C18"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
+++ b/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1953C-6C31-42A3-81B1-92DFC2C0568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C5AB78-5C8E-45E4-AEA3-66EB48F220EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
@@ -285,10 +285,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +606,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,8 +646,8 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
-        <v>44701</v>
+      <c r="B4" s="10">
+        <v>44671</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -864,7 +864,7 @@
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="5" t="s">
         <v>47</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5" t="s">
         <v>28</v>
       </c>

--- a/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
+++ b/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C5AB78-5C8E-45E4-AEA3-66EB48F220EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A9951-D751-494A-8D25-877607BC4BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ambiental" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ambiental!$A$6:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ambiental!$B$6:$H$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>NOMBRE DE QUIEN DILIGENCIA</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>ANDRES PEREZ</t>
+  </si>
+  <si>
+    <t>N°</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -286,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -603,22 +609,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286EF9D-642F-442E-8CD6-817A774F7101}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -626,7 +632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -634,7 +640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -650,347 +656,392 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>52</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
+      <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>45</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="G15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="7">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="7">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="G19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="G20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="7">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G20" xr:uid="{B5249A87-0327-4F9E-A16E-111C6D9B79BC}"/>
+  <autoFilter ref="B6:H20" xr:uid="{B5249A87-0327-4F9E-A16E-111C6D9B79BC}"/>
   <mergeCells count="1">
-    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
+++ b/PLANTILLAS APLICATIVO/SERVICIOS PUBLICOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A9951-D751-494A-8D25-877607BC4BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161BAE4-C854-43B4-B6E7-9908101AE841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52D6C7E4-E0B7-4B97-84D0-D9CA85F195E2}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>NOMBRE EMPRESA DE SERVICIOS</t>
   </si>
   <si>
-    <t>SANTA MARIA</t>
-  </si>
-  <si>
     <t>ACUATODOS SANTA MARIA</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>N°</t>
+  </si>
+  <si>
+    <t>SANTA MARÍA</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>2</v>
@@ -702,7 +702,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7">
         <v>2021</v>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>2021</v>
@@ -751,10 +751,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>2021</v>
@@ -777,10 +777,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>2021</v>
@@ -803,10 +803,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>2021</v>
@@ -829,10 +829,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>2021</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>2021</v>
@@ -878,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7">
         <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>2021</v>
@@ -905,10 +905,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="7">
         <v>2021</v>
@@ -926,13 +926,13 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
         <v>2021</v>
@@ -953,10 +953,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>2021</v>
@@ -980,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>2021</v>
@@ -1003,10 +1003,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>2021</v>
@@ -1029,10 +1029,10 @@
         <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>2021</v>
